--- a/homework/04.php-basics/PHP-basics.xlsx
+++ b/homework/04.php-basics/PHP-basics.xlsx
@@ -32,15 +32,9 @@
     <t>Информация</t>
   </si>
   <si>
-    <t>С помощта на HTML и CSS създайте страница точно копие на картинката с име shops.PNG в папка images</t>
-  </si>
-  <si>
     <t>images/shops.PNG</t>
   </si>
   <si>
-    <t>С помощта на HTML и CSS съсдайте страница точно копие на картинката с име section.PNG в папка images</t>
-  </si>
-  <si>
     <t>images/section.PNG</t>
   </si>
   <si>
@@ -60,6 +54,38 @@
   </si>
   <si>
     <t xml:space="preserve">Създайте произволна променлива в PHP с произволна стойност между 1 и 3.  Ако стойността на променливата е 1 - покажете &lt;div&gt; елемент със син цвят и произволен текст. Ако стойността е 2 - покажете произволна картинка с червен бордер. Ако стойността е 3 визуализирайте span с черен фон и произволен текст с бели букви. </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">С помощта на HTML и CSS създайте страница точно копие на картинката с име shops.PNG в папка images. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Напишете CSS кода в отделен документ с име style.css</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>С помощта на HTML и CSS съсдайте страница точно копие на картинката с име section.PNG в папка images.</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Напишете CSS кода в отделен документ с име style.css</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -395,7 +421,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -412,46 +438,46 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
